--- a/03 - Pandas/data/artwork_data_colores.xlsx
+++ b/03 - Pandas/data/artwork_data_colores.xlsx
@@ -1320,6 +1320,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C85">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="99"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>